--- a/docs/python测试开发课程实战—商业实战课程规划V1.4.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Lux\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C9630E4E-C005-4F50-9896-30D217B71FB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3491A668-58FA-4070-B952-D3B4063C76FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,294 +931,285 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">locust的高级应用
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">性能测试工具原理
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">设计一个自己的性能测试工具
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">多线程/协程的应用
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">场景的设计和应用
 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">监控事务指标
-</t>
+    <t>课程目标和内容的总体介绍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置知识点的准备</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我们需要自己开发测试工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发的意义</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的介绍和环境配置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的安装</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的基本应用（命令行模式）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的基本应用（WEB模式）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的场景设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的脚本编写</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的参数化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的负载机远程模式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试工具的基本原理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试工具的组成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试工具的应用场景</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建开发环境</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计项目结构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定技术方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程和协程的区别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用协程来做并发/压力测试的核心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数化功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本的编写</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本执行优先级权重的设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的监控指标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒事务数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对服务器上的资源进行监控</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO/CPU/内存/网络</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化测试报告生成图表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载机的作用和原理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计远程负载机的实现和控制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示如何应用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化方向</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对课程的总体目标和内容做一个介绍，说明这门课的内容和能学到什么东西</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍学习这门课的前置知识点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明为什么需要自己开发测试工具，以及自己开发测试工具的好处</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲下这测试开发的发展和路径</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个开源的性能测试工具locust入门，介绍性能测试工具是什么样子的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装并演示locust的结构和效果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍locust的基本用法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实这一部分都是对这个工具的学习，要不做成免费课算了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍性能测试工具的原理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍性能测试工具一般由什么部分组成，以及每个部分的作用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍各个工具的特点，引出自己开发工具的目的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计好整个项目的结构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定选用的技术方案是什么。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍多线程和协成的区别和优势特点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选用协程作为性能工具的核心驱动，并编写代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对测试脚本进行参数化功能的设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写性能测试脚本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不同的脚本设计不同的优先级和权重</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍常见的性能测试指标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">添加对应的指标的功能 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么通过脚本去实时获取服务器上的资源数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成对应的表单数据和客户端实时显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作测试报告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对测试报告进行优化，生成好看的图表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试报告的生成</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">监控服务器资源数据
-</t>
+    <t>监控服务器资源数据</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">测试报告的生成
-</t>
+    <t>分布式负载机的实现</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">分布式负载机的实现
-</t>
+    <t>演示使用</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">演示使用
-</t>
+    <t>监控事务指标</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>课程目标和内容的总体介绍</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置知识点的准备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么我们需要自己开发测试工具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试开发的意义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的介绍和环境配置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的安装</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的基本应用（命令行模式）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的基本应用（WEB模式）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的场景设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的脚本编写</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的参数化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>locust的负载机远程模式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能测试工具的基本原理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能测试工具的组成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能测试工具的应用场景</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建开发环境</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计项目结构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定技术方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程和协程的区别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用协程来做并发/压力测试的核心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数化功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本的编写</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本执行优先级权重的设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见的监控指标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞吐量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒事务数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对服务器上的资源进行监控</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO/CPU/内存/网络</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化测试报告生成图表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载机的作用和原理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计远程负载机的实现和控制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示如何应用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化方向</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对课程的总体目标和内容做一个介绍，说明这门课的内容和能学到什么东西</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍学习这门课的前置知识点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明为什么需要自己开发测试工具，以及自己开发测试工具的好处</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲下这测试开发的发展和路径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>从一个开源的性能测试工具locust入门，介绍性能测试工具是什么样子的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装并演示locust的结构和效果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍locust的基本用法</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实这一部分都是对这个工具的学习，要不做成免费课算了。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍性能测试工具的原理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍性能测试工具一般由什么部分组成，以及每个部分的作用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍各个工具的特点，引出自己开发工具的目的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计好整个项目的结构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定选用的技术方案是什么。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍多线程和协成的区别和优势特点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选用协程作为性能工具的核心驱动，并编写代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对测试脚本进行参数化功能的设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写性能测试脚本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对不同的脚本设计不同的优先级和权重</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍常见的性能测试指标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">添加对应的指标的功能 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么通过脚本去实时获取服务器上的资源数据</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成对应的表单数据和客户端实时显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作测试报告</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对测试报告进行优化，生成好看的图表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>多线程/协程的应用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个自己的性能测试工具</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试工具原理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>locust的高级应用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1352,7 +1343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1890,11 +1881,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2160,6 +2164,171 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,15 +2353,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2220,161 +2380,29 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2385,32 +2413,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3567,139 +3577,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="151"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="100"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="155"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="110" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -3719,10 +3729,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128">
+      <c r="A17" s="147">
         <v>1</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="130" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3736,8 +3746,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="129"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
@@ -3749,8 +3759,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
@@ -3762,8 +3772,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="129"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
@@ -3775,10 +3785,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113">
+      <c r="A21" s="129">
         <v>2</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="130" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3792,8 +3802,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="9" t="s">
         <v>34</v>
       </c>
@@ -3805,8 +3815,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="9" t="s">
         <v>35</v>
       </c>
@@ -3818,10 +3828,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="130">
+      <c r="A24" s="120">
         <v>3</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3835,8 +3845,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="9" t="s">
         <v>36</v>
       </c>
@@ -3848,10 +3858,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138">
+      <c r="A26" s="124">
         <v>4</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="128" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -3865,8 +3875,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="137"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="57" t="s">
         <v>40</v>
       </c>
@@ -3878,8 +3888,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="137"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="49" t="s">
         <v>41</v>
       </c>
@@ -3891,8 +3901,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138"/>
-      <c r="B29" s="137"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="51" t="s">
         <v>47</v>
       </c>
@@ -3904,8 +3914,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="138"/>
-      <c r="B30" s="137"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="51" t="s">
         <v>42</v>
       </c>
@@ -3917,10 +3927,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134">
+      <c r="A31" s="127">
         <v>5</v>
       </c>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="103" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -3934,8 +3944,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
-      <c r="B32" s="136"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="69" t="s">
         <v>45</v>
       </c>
@@ -3947,8 +3957,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="136"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="69" t="s">
         <v>46</v>
       </c>
@@ -3960,10 +3970,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="142">
+      <c r="A34" s="115">
         <v>6</v>
       </c>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -3977,8 +3987,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="142"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="47" t="s">
         <v>50</v>
       </c>
@@ -3990,8 +4000,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="143"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="49" t="s">
         <v>51</v>
       </c>
@@ -4003,8 +4013,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="61" t="s">
         <v>52</v>
       </c>
@@ -4016,10 +4026,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="130">
+      <c r="A38" s="120">
         <v>7</v>
       </c>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="118" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -4033,8 +4043,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="131"/>
-      <c r="B39" s="147"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="14" t="s">
         <v>55</v>
       </c>
@@ -4046,8 +4056,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
-      <c r="B40" s="147"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="14" t="s">
         <v>56</v>
       </c>
@@ -4059,10 +4069,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="131">
+      <c r="A41" s="119">
         <v>8</v>
       </c>
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="118" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -4076,8 +4086,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="131"/>
-      <c r="B42" s="147"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="15" t="s">
         <v>59</v>
       </c>
@@ -4089,8 +4099,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="131"/>
-      <c r="B43" s="147"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="15" t="s">
         <v>60</v>
       </c>
@@ -4102,10 +4112,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="138">
+      <c r="A44" s="124">
         <v>9</v>
       </c>
-      <c r="B44" s="135" t="s">
+      <c r="B44" s="103" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -4119,8 +4129,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
-      <c r="B45" s="136"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="47" t="s">
         <v>63</v>
       </c>
@@ -4132,8 +4142,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="136"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="47" t="s">
         <v>64</v>
       </c>
@@ -4145,8 +4155,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="138"/>
-      <c r="B47" s="149"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="57" t="s">
         <v>65</v>
       </c>
@@ -4158,10 +4168,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="139">
+      <c r="A48" s="96">
         <v>10</v>
       </c>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="113" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -4175,8 +4185,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="139"/>
-      <c r="B49" s="141"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="39" t="s">
         <v>68</v>
       </c>
@@ -4188,8 +4198,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="139"/>
-      <c r="B50" s="141"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="39" t="s">
         <v>69</v>
       </c>
@@ -4201,10 +4211,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="144">
+      <c r="A51" s="95">
         <v>11</v>
       </c>
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="93" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -4218,8 +4228,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="139"/>
-      <c r="B52" s="152"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="39" t="s">
         <v>72</v>
       </c>
@@ -4231,8 +4241,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="139"/>
-      <c r="B53" s="152"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="39" t="s">
         <v>73</v>
       </c>
@@ -4244,8 +4254,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="139"/>
-      <c r="B54" s="152"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="39" t="s">
         <v>74</v>
       </c>
@@ -4257,10 +4267,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="143">
+      <c r="A55" s="110">
         <v>12</v>
       </c>
-      <c r="B55" s="160" t="s">
+      <c r="B55" s="107" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -4274,8 +4284,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="161"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="47" t="s">
         <v>77</v>
       </c>
@@ -4287,8 +4297,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="164"/>
-      <c r="B57" s="162"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="47" t="s">
         <v>78</v>
       </c>
@@ -4317,10 +4327,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="154">
+      <c r="A59" s="100">
         <v>14</v>
       </c>
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="102" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="39" t="s">
@@ -4334,8 +4344,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="155"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="7" t="s">
         <v>81</v>
       </c>
@@ -4347,11 +4357,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="159"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="72" t="s">
         <v>119</v>
       </c>
@@ -4386,77 +4396,77 @@
       <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="129"/>
-      <c r="B66" s="153"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="24"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="129"/>
-      <c r="B67" s="153"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="24"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
-      <c r="B68" s="153"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="24"/>
       <c r="D68" s="18"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
-      <c r="B69" s="153"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="24"/>
       <c r="D69" s="18"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
-      <c r="B70" s="153"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="24"/>
       <c r="D70" s="18"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="129"/>
-      <c r="B71" s="153"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="24"/>
       <c r="D71" s="18"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="153"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="24"/>
       <c r="D72" s="18"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="153"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="24"/>
       <c r="D73" s="18"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="153"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="24"/>
       <c r="D74" s="25"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
+      <c r="A75" s="97"/>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="26"/>
@@ -4736,81 +4746,81 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="129"/>
-      <c r="B116" s="150"/>
+      <c r="A116" s="97"/>
+      <c r="B116" s="98"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="97"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="129"/>
-      <c r="B117" s="129"/>
+      <c r="A117" s="97"/>
+      <c r="B117" s="97"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="129"/>
-      <c r="B118" s="150"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="98"/>
       <c r="C118" s="24"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="97"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="129"/>
-      <c r="B119" s="129"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="97"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="129"/>
-      <c r="E119" s="129"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="97"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="129"/>
-      <c r="B120" s="129"/>
+      <c r="A120" s="97"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="24"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="129"/>
-      <c r="B121" s="150"/>
+      <c r="A121" s="97"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="24"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="129"/>
-      <c r="B123" s="150"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="98"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="129"/>
-      <c r="B124" s="129"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="97"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="129"/>
-      <c r="B125" s="129"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="30"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="97"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
@@ -5752,45 +5762,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:E7"/>
@@ -5804,12 +5781,45 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5821,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56719825-6127-4885-A498-D828B6970B8F}">
   <dimension ref="A1:IV265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5837,139 +5847,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="151"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="100"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="155"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="110" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
@@ -5989,431 +5999,431 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="170">
+      <c r="A17" s="166">
         <v>1</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="165" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="56" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="170"/>
-      <c r="B18" s="176"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="56" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170"/>
-      <c r="B19" s="176"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="84" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="56" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="170"/>
-      <c r="B20" s="176"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="76" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="170">
+      <c r="A21" s="166">
         <v>2</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="165" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="76" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="170"/>
-      <c r="B22" s="176"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="84" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="76" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="170"/>
-      <c r="B23" s="176"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="84" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="76" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="170"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="84" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="76" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138">
+      <c r="A25" s="124">
         <v>3</v>
       </c>
-      <c r="B25" s="172" t="s">
-        <v>123</v>
+      <c r="B25" s="171" t="s">
+        <v>192</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D25" s="66"/>
-      <c r="E25" s="165" t="s">
-        <v>176</v>
+      <c r="E25" s="173" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="84" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D26" s="66"/>
-      <c r="E26" s="166"/>
+      <c r="E26" s="174"/>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="84" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D27" s="66"/>
-      <c r="E27" s="166"/>
+      <c r="E27" s="174"/>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="84" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D28" s="66"/>
-      <c r="E28" s="167"/>
+      <c r="E28" s="175"/>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138">
+      <c r="A29" s="124">
         <v>4</v>
       </c>
-      <c r="B29" s="172" t="s">
-        <v>124</v>
+      <c r="B29" s="171" t="s">
+        <v>191</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="138"/>
-      <c r="B30" s="172"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="84" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="39" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="84" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="41" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="170">
+      <c r="A32" s="166">
         <v>5</v>
       </c>
-      <c r="B32" s="172" t="s">
-        <v>125</v>
+      <c r="B32" s="171" t="s">
+        <v>190</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="42" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="170"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="84" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="44" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="170"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="84" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D34" s="79"/>
       <c r="E34" s="80" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="170">
+      <c r="A35" s="166">
         <v>6</v>
       </c>
-      <c r="B35" s="172" t="s">
-        <v>126</v>
+      <c r="B35" s="171" t="s">
+        <v>189</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D35" s="75"/>
       <c r="E35" s="42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="170"/>
-      <c r="B36" s="172"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="84" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="42" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="170">
+      <c r="A37" s="166">
         <v>7</v>
       </c>
-      <c r="B37" s="171" t="s">
-        <v>127</v>
+      <c r="B37" s="172" t="s">
+        <v>123</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="42" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="170"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="84" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D38" s="52"/>
       <c r="E38" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="170"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="84" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="53" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="170">
+      <c r="A40" s="166">
         <v>8</v>
       </c>
-      <c r="B40" s="171" t="s">
-        <v>128</v>
+      <c r="B40" s="172" t="s">
+        <v>188</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D40" s="77"/>
       <c r="E40" s="53" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="170"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="84" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D41" s="77"/>
       <c r="E41" s="55" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="170"/>
-      <c r="B42" s="171"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="84" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D42" s="77"/>
       <c r="E42" s="55" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="170"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="84" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D43" s="77"/>
       <c r="E43" s="55" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="170"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="84" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D44" s="77"/>
       <c r="E44" s="55" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138">
+      <c r="A45" s="124">
         <v>9</v>
       </c>
-      <c r="B45" s="172" t="s">
-        <v>129</v>
+      <c r="B45" s="171" t="s">
+        <v>185</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D45" s="77"/>
       <c r="E45" s="55" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="172"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="84" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D46" s="77"/>
       <c r="E46" s="55" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="170">
+      <c r="A47" s="166">
         <v>10</v>
       </c>
-      <c r="B47" s="172" t="s">
-        <v>130</v>
+      <c r="B47" s="177" t="s">
+        <v>184</v>
       </c>
       <c r="C47" s="84" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="56" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="170"/>
-      <c r="B48" s="172"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="84" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D48" s="66"/>
       <c r="E48" s="56" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="170">
+      <c r="A49" s="166">
         <v>11</v>
       </c>
-      <c r="B49" s="168" t="s">
-        <v>131</v>
+      <c r="B49" s="170" t="s">
+        <v>186</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D49" s="66"/>
       <c r="E49" s="56"/>
     </row>
     <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="170"/>
-      <c r="B50" s="168"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="84" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D50" s="66"/>
       <c r="E50" s="56"/>
     </row>
     <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138">
+      <c r="A51" s="124">
         <v>12</v>
       </c>
-      <c r="B51" s="168" t="s">
-        <v>132</v>
+      <c r="B51" s="170" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D51" s="77"/>
       <c r="E51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="143"/>
-      <c r="B52" s="169"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="86" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D52" s="77"/>
       <c r="E52" s="78"/>
@@ -6423,10 +6433,10 @@
         <v>13</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D53" s="74"/>
       <c r="E53" s="80"/>
@@ -6448,72 +6458,72 @@
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="129"/>
-      <c r="B56" s="174"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="89"/>
       <c r="D56" s="75"/>
       <c r="E56" s="46"/>
       <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="174"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="167"/>
       <c r="C57" s="89"/>
       <c r="D57" s="75"/>
       <c r="E57" s="46"/>
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
-      <c r="B58" s="174"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="89"/>
       <c r="D58" s="75"/>
       <c r="E58" s="46"/>
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
-      <c r="B59" s="174"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="167"/>
       <c r="C59" s="89"/>
       <c r="D59" s="75"/>
       <c r="E59" s="46"/>
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="174"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="167"/>
       <c r="C60" s="89"/>
       <c r="D60" s="75"/>
       <c r="E60" s="46"/>
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="155"/>
-      <c r="B61" s="175"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="168"/>
       <c r="C61" s="89"/>
       <c r="D61" s="75"/>
       <c r="E61" s="87"/>
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="155"/>
-      <c r="B62" s="175"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="168"/>
       <c r="C62" s="89"/>
       <c r="D62" s="75"/>
       <c r="E62" s="87"/>
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="155"/>
-      <c r="B63" s="175"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="168"/>
       <c r="C63" s="89"/>
       <c r="D63" s="75"/>
       <c r="E63" s="87"/>
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="155"/>
-      <c r="B64" s="175"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="168"/>
       <c r="C64" s="90"/>
       <c r="D64" s="75"/>
       <c r="E64" s="87"/>
@@ -6528,9 +6538,9 @@
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="173"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="153"/>
+      <c r="A66" s="169"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="73"/>
       <c r="E66" s="21"/>
       <c r="F66" s="26"/>
@@ -6568,79 +6578,79 @@
       <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="129"/>
-      <c r="B71" s="153"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="24"/>
       <c r="D71" s="73"/>
       <c r="E71" s="21"/>
       <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="153"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="24"/>
       <c r="D72" s="73"/>
       <c r="E72" s="21"/>
       <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="153"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="24"/>
       <c r="D73" s="73"/>
       <c r="E73" s="22"/>
       <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="153"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="24"/>
       <c r="D74" s="73"/>
       <c r="E74" s="21"/>
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="153"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="24"/>
       <c r="D75" s="73"/>
       <c r="E75" s="21"/>
       <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="153"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="24"/>
       <c r="D76" s="73"/>
       <c r="E76" s="21"/>
       <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="129"/>
-      <c r="B77" s="153"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="99"/>
       <c r="C77" s="24"/>
       <c r="D77" s="73"/>
       <c r="E77" s="21"/>
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="129"/>
-      <c r="B78" s="153"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="24"/>
       <c r="D78" s="73"/>
       <c r="E78" s="21"/>
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="129"/>
-      <c r="B79" s="153"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="24"/>
       <c r="D79" s="25"/>
       <c r="E79" s="21"/>
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="129"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="26"/>
       <c r="C80" s="27"/>
       <c r="D80" s="26"/>
@@ -6648,7 +6658,7 @@
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="129"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
       <c r="D81" s="26"/>
@@ -6936,81 +6946,81 @@
       <c r="E120" s="36"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="129"/>
-      <c r="B121" s="150"/>
+      <c r="A121" s="97"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="24"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="129"/>
-      <c r="B123" s="150"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="98"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="129"/>
-      <c r="B124" s="129"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="97"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="129"/>
-      <c r="B125" s="129"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="129"/>
-      <c r="B126" s="150"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="97"/>
     </row>
     <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="129"/>
-      <c r="B127" s="129"/>
+      <c r="A127" s="97"/>
+      <c r="B127" s="97"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="97"/>
     </row>
     <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="129"/>
-      <c r="B128" s="150"/>
+      <c r="A128" s="97"/>
+      <c r="B128" s="98"/>
       <c r="C128" s="24"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="97"/>
     </row>
     <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="129"/>
-      <c r="B129" s="129"/>
+      <c r="A129" s="97"/>
+      <c r="B129" s="97"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="129"/>
-      <c r="E129" s="129"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
     </row>
     <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129"/>
+      <c r="A130" s="97"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="24"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="129"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="97"/>
     </row>
     <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="36"/>
       <c r="B131" s="38"/>
       <c r="C131" s="24"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="129"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33"/>
@@ -7952,6 +7962,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D128:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="D126:E127"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -7968,53 +8025,6 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="D128:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="D126:E127"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
